--- a/with_africa/dashboard/results.xlsx
+++ b/with_africa/dashboard/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvpandit/Documents/GitHub/with-data-proccesing/datasets/open_data_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvpandit/Documents/GitHub/Projects/with_africa/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A605E98-8CAF-5745-A7D3-F26C3AA5D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC22E0A-6256-5D45-97A3-8B3E2C12A61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27820" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="295">
   <si>
     <t>country</t>
   </si>
@@ -754,6 +754,168 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Niger's data provision requires enhancement in machine readability and recency for better transparency in Western Africa.</t>
+  </si>
+  <si>
+    <t>While Mali shows potential with secure data, it needs to improve its recency and machine-readability in Western Africa.</t>
+  </si>
+  <si>
+    <t>South Africa stands out with comprehensive, recent, and machine-readable data, setting a high standard in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Uganda's tourism data is commendably recent and machine-readable, indicating strong data accessibility in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Ghana's tourism data is fairly recent and moderately machine-readable, placing it well in Western Africa.</t>
+  </si>
+  <si>
+    <t>Seychelles excels in providing recent and machine-readable data, leading in data transparency in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Zimbabwe's tourism data is notable for its recency and machine-readability, marking it as a strong source in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Djibouti has room to grow with its tourism data, requiring more recent and machine-readable formats in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>The Republic of Congo needs to improve its data provision, particularly in machine-readability and recency in Central Africa.</t>
+  </si>
+  <si>
+    <t>Rwanda leads with exemplary tourism data that is both recent and machine-readable, setting a high bar in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Morocco's tourism data is highly accessible, with strong machine readability and recent updates, leading in Northern Africa.</t>
+  </si>
+  <si>
+    <t>Namibia's data accessibility is strong, with recent updates and good machine readability in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Guinea's tourism data provision is moderate, needing improvements in recency and machine readability in Western Africa.</t>
+  </si>
+  <si>
+    <t>Nigeria offers fairly recent and machine-readable data, showing a good level of transparency in Western Africa.</t>
+  </si>
+  <si>
+    <t>Malawi's data provision is average, with a need for more recent and machine-readable data in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>The Gambia has significant room for improvement in both machine-readability and the recency of its tourism data in Western Africa.</t>
+  </si>
+  <si>
+    <t>Algeria provides comprehensive and machine-readable tourism data, setting a high standard in Northern Africa.</t>
+  </si>
+  <si>
+    <t>The Democratic Republic of Congo has very limited tourism data, indicating a need for improvement in Central Africa.</t>
+  </si>
+  <si>
+    <t>Angola's tourism data is moderately accessible, with recent updates and some machine readability in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Benin's data is somewhat recent and machine-readable, suggesting moderate transparency in tourism data in Western Africa.</t>
+  </si>
+  <si>
+    <t>Cameroon's tourism data shows potential with a moderate level of machine readability and recent updates in Central Africa.</t>
+  </si>
+  <si>
+    <t>The CAR requires significant enhancements in data accessibility, with poor recency and machine readability in Central Africa.</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea has considerable room for growth with its tourism data, needing more recent and machine-readable formats in Central Africa.</t>
+  </si>
+  <si>
+    <t>Eritrea's data provision for tourism is very limited, with no recent updates or machine-readability in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Ethiopia provides a fair amount of machine-readable data, but it needs more recent updates in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Gabon's tourism data is somewhat dated but offers some machine readability, indicating room for improvement in Central Africa.</t>
+  </si>
+  <si>
+    <t>Libya's tourism data is lacking in both recency and machine readability, highlighting an area for development in Northern Africa.</t>
+  </si>
+  <si>
+    <t>Mauritania's data accessibility is low, with a need for more recent and machine-readable tourism data in Western Africa.</t>
+  </si>
+  <si>
+    <t>Somalia's absence of recent and machine-readable tourism data presents an opportunity for significant growth in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>South Sudan lacks both recent and machine-readable tourism data, indicating a substantial gap in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Zambia's data provision is moderate, with opportunities for enhancement in recency and machine readability in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Burundi faces challenges with recency and machine readability, needing significant improvements in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Liberia's tourism data is notably lacking in recency and machine-readability, suggesting a need for development in Western Africa.</t>
+  </si>
+  <si>
+    <t>Madagascar's tourism data needs updating and machine-readability enhancements to improve its standing in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe's tourism data provision is quite limited, requiring improvements in machine-readability and recency in Central Africa.</t>
+  </si>
+  <si>
+    <t>Mauritius exemplifies data accessibility with comprehensive, machine-readable statistics, leading in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Tanzania, with its recent and ODFA-listed data, sets a transparency standard in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Cabo Verde's modern data approach and comprehensive coverage set a high bar in Western Africa.</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire offers good data accessibility, with recent updates contributing to its competitiveness in Western Africa.</t>
+  </si>
+  <si>
+    <t>Kenya provides competitive, machine-readable tourism data, ranking well in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Chad's data provision, though not the most recent, offers a breadth of indicators, marking it as a data-rich source in Central Africa.</t>
+  </si>
+  <si>
+    <t>Togo's machine-readable and secure data demonstrates its commitment to data transparency in Western Africa.</t>
+  </si>
+  <si>
+    <t>With a focus on machine readability and up-to-date information, Tunisia leads in regional data accessibility in Northern Africa.</t>
+  </si>
+  <si>
+    <t>Mozambique's comprehensive data availability, despite security warnings, makes it notable in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Burkina Faso has a strong data provision with recent updates and a high final score, outshining its regional counterparts in Western Africa.</t>
+  </si>
+  <si>
+    <t>Senegal’s data, with higher machine readability and fewer security warnings, shows a strong presence in Western Africa.</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau's data provision is hindered by outdated statistics, indicating room for improvement in Western Africa.</t>
+  </si>
+  <si>
+    <t>Egypt's data scores are moderate, with room for improvement in machine readability and recency for Northern Africa.</t>
+  </si>
+  <si>
+    <t>Lesotho's data, while not fully machine-readable, has a good recency score, placing it well in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Sudan shows potential for improvement with moderate scores in machine readability and recency for Northern Africa.</t>
+  </si>
+  <si>
+    <t>Comoros needs to improve in providing recent and machine-readable data to elevate its position in Eastern Africa.</t>
+  </si>
+  <si>
+    <t>Eswatini’s perfect score in security but lower in other areas indicates a mixed data provision landscape in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Botswana demonstrates strong data provision with a perfect score in machine readability, leading in Southern Africa.</t>
+  </si>
+  <si>
+    <t>Sierra Leone’s perfect security score contrasts with its need for more recent data in Western Africa.</t>
   </si>
 </sst>
 </file>
@@ -792,7 +954,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -815,6 +977,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -823,12 +996,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1134,15 +1310,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>240</v>
       </c>
@@ -1191,185 +1367,197 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2021</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2023</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>183</v>
       </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>2023</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>186</v>
       </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2022</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2021</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>191</v>
-      </c>
       <c r="N5">
         <v>5</v>
       </c>
@@ -1379,8 +1567,11 @@
       <c r="P5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -1426,8 +1617,11 @@
       <c r="P6">
         <v>4.8319999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>22</v>
       </c>
@@ -1473,8 +1667,11 @@
       <c r="P7">
         <v>4.7480000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1520,8 +1717,11 @@
       <c r="P8">
         <v>4.6790000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1567,8 +1767,11 @@
       <c r="P9">
         <v>4.6369999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1614,8 +1817,11 @@
       <c r="P10">
         <v>4.5920000000000014</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -1661,8 +1867,11 @@
       <c r="P11">
         <v>4.484</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -1708,8 +1917,11 @@
       <c r="P12">
         <v>4.343</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>33</v>
       </c>
@@ -1755,8 +1967,11 @@
       <c r="P13">
         <v>4.0369999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1802,8 +2017,11 @@
       <c r="P14">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>30</v>
       </c>
@@ -1849,8 +2067,11 @@
       <c r="P15">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>34</v>
       </c>
@@ -1896,8 +2117,11 @@
       <c r="P16">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36</v>
       </c>
@@ -1943,31 +2167,34 @@
       <c r="P17">
         <v>3.5840000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F18">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1979,10 +2206,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="N18">
         <v>5</v>
@@ -1993,31 +2217,34 @@
       <c r="P18">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2029,7 +2256,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>216</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -2040,8 +2270,11 @@
       <c r="P19">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2087,8 +2320,11 @@
       <c r="P20">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2134,8 +2370,11 @@
       <c r="P21">
         <v>3.4039999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -2181,8 +2420,11 @@
       <c r="P22">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2228,31 +2470,34 @@
       <c r="P23">
         <v>3.3079999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2264,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -2275,31 +2520,34 @@
       <c r="P24">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F25">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2311,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -2322,8 +2570,11 @@
       <c r="P25">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -2369,8 +2620,11 @@
       <c r="P26">
         <v>3.1789999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2419,8 +2673,11 @@
       <c r="P27">
         <v>3.137</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>15</v>
       </c>
@@ -2466,8 +2723,11 @@
       <c r="P28">
         <v>3.0920000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -2513,8 +2773,11 @@
       <c r="P29">
         <v>2.948</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2560,8 +2823,11 @@
       <c r="P30">
         <v>2.948</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -2607,8 +2873,11 @@
       <c r="P31">
         <v>2.915</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -2654,8 +2923,11 @@
       <c r="P32">
         <v>2.915</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>18</v>
       </c>
@@ -2701,8 +2973,11 @@
       <c r="P33">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -2748,8 +3023,11 @@
       <c r="P34">
         <v>2.6840000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2795,8 +3073,11 @@
       <c r="P35">
         <v>2.6640000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -2842,8 +3123,11 @@
       <c r="P36">
         <v>2.5640000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -2889,8 +3173,11 @@
       <c r="P37">
         <v>2.5369999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>24</v>
       </c>
@@ -2933,8 +3220,11 @@
       <c r="P38">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2974,8 +3264,11 @@
       <c r="P39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3015,8 +3308,11 @@
       <c r="P40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3056,8 +3352,11 @@
       <c r="P41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3097,8 +3396,11 @@
       <c r="P42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3138,8 +3440,11 @@
       <c r="P43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3179,8 +3484,11 @@
       <c r="P44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3220,8 +3528,11 @@
       <c r="P45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3258,8 +3569,11 @@
       <c r="P46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -3296,8 +3610,11 @@
       <c r="P47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -3337,8 +3654,11 @@
       <c r="P48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>51</v>
       </c>
@@ -3378,8 +3698,11 @@
       <c r="P49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>52</v>
       </c>
@@ -3419,8 +3742,11 @@
       <c r="P50">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -3460,8 +3786,11 @@
       <c r="P51">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>39</v>
       </c>
@@ -3501,8 +3830,11 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>46</v>
       </c>
@@ -3542,8 +3874,11 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -3583,8 +3918,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -3624,25 +3962,28 @@
       <c r="P55">
         <v>0</v>
       </c>
+      <c r="Q55" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P55">
-    <sortCondition descending="1" ref="P1:P55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q55">
+    <sortCondition descending="1" ref="P2:P55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E8" r:id="rId6" location="topic=Tourisme" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="E22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="E11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
@@ -3656,10 +3997,10 @@
     <hyperlink ref="E29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="E38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E24" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="E34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E24" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="E15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="E12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="E37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
